--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H2">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I2">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J2">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N2">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q2">
-        <v>21.42556587358584</v>
+        <v>69.55348060189468</v>
       </c>
       <c r="R2">
-        <v>21.42556587358584</v>
+        <v>625.9813254170521</v>
       </c>
       <c r="S2">
-        <v>0.00478751249512171</v>
+        <v>0.01232343473257564</v>
       </c>
       <c r="T2">
-        <v>0.00478751249512171</v>
+        <v>0.01232343473257563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H3">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I3">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J3">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q3">
-        <v>57.51872408336993</v>
+        <v>161.6281728017942</v>
       </c>
       <c r="R3">
-        <v>57.51872408336993</v>
+        <v>1454.653555216148</v>
       </c>
       <c r="S3">
-        <v>0.01285247782379829</v>
+        <v>0.02863716123523673</v>
       </c>
       <c r="T3">
-        <v>0.01285247782379829</v>
+        <v>0.02863716123523672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H4">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I4">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J4">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N4">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q4">
-        <v>36.98636134202115</v>
+        <v>109.1091658953316</v>
       </c>
       <c r="R4">
-        <v>36.98636134202115</v>
+        <v>981.9824930579841</v>
       </c>
       <c r="S4">
-        <v>0.008264550309605307</v>
+        <v>0.01933188207119371</v>
       </c>
       <c r="T4">
-        <v>0.008264550309605307</v>
+        <v>0.01933188207119369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H5">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I5">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J5">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N5">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q5">
-        <v>50.06143273379176</v>
+        <v>142.3504766894898</v>
       </c>
       <c r="R5">
-        <v>50.06143273379176</v>
+        <v>1281.154290205408</v>
       </c>
       <c r="S5">
-        <v>0.0111861565827858</v>
+        <v>0.02522155316244765</v>
       </c>
       <c r="T5">
-        <v>0.0111861565827858</v>
+        <v>0.02522155316244763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H6">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I6">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J6">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N6">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q6">
-        <v>18.11393122561497</v>
+        <v>51.48429596267067</v>
       </c>
       <c r="R6">
-        <v>18.11393122561497</v>
+        <v>463.358663664036</v>
       </c>
       <c r="S6">
-        <v>0.004047532400781029</v>
+        <v>0.00912194983713434</v>
       </c>
       <c r="T6">
-        <v>0.004047532400781029</v>
+        <v>0.009121949837134335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H7">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I7">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J7">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9858659201119</v>
+        <v>14.921556</v>
       </c>
       <c r="N7">
-        <v>12.9858659201119</v>
+        <v>44.764668</v>
       </c>
       <c r="O7">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="P7">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="Q7">
-        <v>34.19612118412024</v>
+        <v>110.373575902928</v>
       </c>
       <c r="R7">
-        <v>34.19612118412024</v>
+        <v>993.3621831263521</v>
       </c>
       <c r="S7">
-        <v>0.007641075079165325</v>
+        <v>0.01955590930993128</v>
       </c>
       <c r="T7">
-        <v>0.007641075079165325</v>
+        <v>0.01955590930993127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.9179894862515</v>
+        <v>35.068685</v>
       </c>
       <c r="H8">
-        <v>33.9179894862515</v>
+        <v>105.206055</v>
       </c>
       <c r="I8">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J8">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N8">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O8">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P8">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q8">
-        <v>275.9665658143371</v>
+        <v>329.751932184235</v>
       </c>
       <c r="R8">
-        <v>275.9665658143371</v>
+        <v>2967.767389658115</v>
       </c>
       <c r="S8">
-        <v>0.06166434015639131</v>
+        <v>0.05842520574164382</v>
       </c>
       <c r="T8">
-        <v>0.06166434015639131</v>
+        <v>0.0584252057416438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.9179894862515</v>
+        <v>35.068685</v>
       </c>
       <c r="H9">
-        <v>33.9179894862515</v>
+        <v>105.206055</v>
       </c>
       <c r="I9">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J9">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N9">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O9">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P9">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q9">
-        <v>740.8553337150865</v>
+        <v>766.2765661125983</v>
       </c>
       <c r="R9">
-        <v>740.8553337150865</v>
+        <v>6896.489095013385</v>
       </c>
       <c r="S9">
-        <v>0.1655430800831833</v>
+        <v>0.1357683205480525</v>
       </c>
       <c r="T9">
-        <v>0.1655430800831833</v>
+        <v>0.1357683205480525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.9179894862515</v>
+        <v>35.068685</v>
       </c>
       <c r="H10">
-        <v>33.9179894862515</v>
+        <v>105.206055</v>
       </c>
       <c r="I10">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J10">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N10">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O10">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P10">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q10">
-        <v>476.393444250136</v>
+        <v>517.2847995764535</v>
       </c>
       <c r="R10">
-        <v>476.393444250136</v>
+        <v>4655.563196188081</v>
       </c>
       <c r="S10">
-        <v>0.1064494436412233</v>
+        <v>0.09165214178455137</v>
       </c>
       <c r="T10">
-        <v>0.1064494436412233</v>
+        <v>0.09165214178455135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.9179894862515</v>
+        <v>35.068685</v>
       </c>
       <c r="H11">
-        <v>33.9179894862515</v>
+        <v>105.206055</v>
       </c>
       <c r="I11">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J11">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N11">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O11">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P11">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q11">
-        <v>644.803584316151</v>
+        <v>674.8813190871067</v>
       </c>
       <c r="R11">
-        <v>644.803584316151</v>
+        <v>6073.931871783961</v>
       </c>
       <c r="S11">
-        <v>0.1440804520649138</v>
+        <v>0.1195749776435769</v>
       </c>
       <c r="T11">
-        <v>0.1440804520649138</v>
+        <v>0.1195749776435768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.9179894862515</v>
+        <v>35.068685</v>
       </c>
       <c r="H12">
-        <v>33.9179894862515</v>
+        <v>105.206055</v>
       </c>
       <c r="I12">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J12">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N12">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O12">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P12">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q12">
-        <v>233.3118958548856</v>
+        <v>244.086218603605</v>
       </c>
       <c r="R12">
-        <v>233.3118958548856</v>
+        <v>2196.775967432445</v>
       </c>
       <c r="S12">
-        <v>0.0521332142757011</v>
+        <v>0.04324701737501225</v>
       </c>
       <c r="T12">
-        <v>0.0521332142757011</v>
+        <v>0.04324701737501223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.9179894862515</v>
+        <v>35.068685</v>
       </c>
       <c r="H13">
-        <v>33.9179894862515</v>
+        <v>105.206055</v>
       </c>
       <c r="I13">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J13">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9858659201119</v>
+        <v>14.921556</v>
       </c>
       <c r="N13">
-        <v>12.9858659201119</v>
+        <v>44.764668</v>
       </c>
       <c r="O13">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="P13">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="Q13">
-        <v>440.4544637482271</v>
+        <v>523.2793470738601</v>
       </c>
       <c r="R13">
-        <v>440.4544637482271</v>
+        <v>4709.514123664741</v>
       </c>
       <c r="S13">
-        <v>0.09841892910405797</v>
+        <v>0.09271425131805477</v>
       </c>
       <c r="T13">
-        <v>0.09841892910405797</v>
+        <v>0.09271425131805473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.86303099194348</v>
+        <v>5.299122</v>
       </c>
       <c r="H14">
-        <v>2.86303099194348</v>
+        <v>15.897366</v>
       </c>
       <c r="I14">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J14">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N14">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O14">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P14">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q14">
-        <v>23.29444765548149</v>
+        <v>49.827808438782</v>
       </c>
       <c r="R14">
-        <v>23.29444765548149</v>
+        <v>448.450275949038</v>
       </c>
       <c r="S14">
-        <v>0.005205111495097776</v>
+        <v>0.008828454591327592</v>
       </c>
       <c r="T14">
-        <v>0.005205111495097776</v>
+        <v>0.008828454591327589</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.86303099194348</v>
+        <v>5.299122</v>
       </c>
       <c r="H15">
-        <v>2.86303099194348</v>
+        <v>15.897366</v>
       </c>
       <c r="I15">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J15">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N15">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O15">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P15">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q15">
-        <v>62.53589358038739</v>
+        <v>115.789714087418</v>
       </c>
       <c r="R15">
-        <v>62.53589358038739</v>
+        <v>1042.107426786762</v>
       </c>
       <c r="S15">
-        <v>0.01397355727620739</v>
+        <v>0.02051553670516123</v>
       </c>
       <c r="T15">
-        <v>0.01397355727620739</v>
+        <v>0.02051553670516123</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.86303099194348</v>
+        <v>5.299122</v>
       </c>
       <c r="H16">
-        <v>2.86303099194348</v>
+        <v>15.897366</v>
       </c>
       <c r="I16">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J16">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N16">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O16">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P16">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q16">
-        <v>40.21256023443548</v>
+        <v>78.165327890144</v>
       </c>
       <c r="R16">
-        <v>40.21256023443548</v>
+        <v>703.4879510112961</v>
       </c>
       <c r="S16">
-        <v>0.008985439904788563</v>
+        <v>0.01384927552537643</v>
       </c>
       <c r="T16">
-        <v>0.008985439904788563</v>
+        <v>0.01384927552537642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.86303099194348</v>
+        <v>5.299122</v>
       </c>
       <c r="H17">
-        <v>2.86303099194348</v>
+        <v>15.897366</v>
       </c>
       <c r="I17">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J17">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N17">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O17">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P17">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q17">
-        <v>54.42812718488772</v>
+        <v>101.979257145328</v>
       </c>
       <c r="R17">
-        <v>54.42812718488772</v>
+        <v>917.8133143079519</v>
       </c>
       <c r="S17">
-        <v>0.01216188830302819</v>
+        <v>0.01806861006281206</v>
       </c>
       <c r="T17">
-        <v>0.01216188830302819</v>
+        <v>0.01806861006281206</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.86303099194348</v>
+        <v>5.299122</v>
       </c>
       <c r="H18">
-        <v>2.86303099194348</v>
+        <v>15.897366</v>
       </c>
       <c r="I18">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J18">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N18">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O18">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P18">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q18">
-        <v>19.69394998758371</v>
+        <v>36.883123815426</v>
       </c>
       <c r="R18">
-        <v>19.69394998758371</v>
+        <v>331.948114338834</v>
       </c>
       <c r="S18">
-        <v>0.004400585366106796</v>
+        <v>0.006534924854077352</v>
       </c>
       <c r="T18">
-        <v>0.004400585366106796</v>
+        <v>0.00653492485407735</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.86303099194348</v>
+        <v>5.299122</v>
       </c>
       <c r="H19">
-        <v>2.86303099194348</v>
+        <v>15.897366</v>
       </c>
       <c r="I19">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J19">
-        <v>0.05303416332177872</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.9858659201119</v>
+        <v>14.921556</v>
       </c>
       <c r="N19">
-        <v>12.9858659201119</v>
+        <v>44.764668</v>
       </c>
       <c r="O19">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="P19">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="Q19">
-        <v>37.17893658650301</v>
+        <v>79.07114567383199</v>
       </c>
       <c r="R19">
-        <v>37.17893658650301</v>
+        <v>711.6403110644879</v>
       </c>
       <c r="S19">
-        <v>0.008307580976550009</v>
+        <v>0.01400976765661538</v>
       </c>
       <c r="T19">
-        <v>0.008307580976550009</v>
+        <v>0.01400976765661538</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.74704134588599</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H20">
-        <v>4.74704134588599</v>
+        <v>16.20007</v>
       </c>
       <c r="I20">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J20">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N20">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O20">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P20">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q20">
-        <v>38.6233004327641</v>
+        <v>50.77658680405667</v>
       </c>
       <c r="R20">
-        <v>38.6233004327641</v>
+        <v>456.98928123651</v>
       </c>
       <c r="S20">
-        <v>0.008630322042166483</v>
+        <v>0.0089965584469357</v>
       </c>
       <c r="T20">
-        <v>0.008630322042166483</v>
+        <v>0.008996558446935697</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.74704134588599</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H21">
-        <v>4.74704134588599</v>
+        <v>16.20007</v>
       </c>
       <c r="I21">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J21">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N21">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O21">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P21">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q21">
-        <v>103.6874812963553</v>
+        <v>117.9944824504989</v>
       </c>
       <c r="R21">
-        <v>103.6874812963553</v>
+        <v>1061.95034205449</v>
       </c>
       <c r="S21">
-        <v>0.02316882154818532</v>
+        <v>0.02090617594834146</v>
       </c>
       <c r="T21">
-        <v>0.02316882154818532</v>
+        <v>0.02090617594834146</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.74704134588599</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H22">
-        <v>4.74704134588599</v>
+        <v>16.20007</v>
       </c>
       <c r="I22">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J22">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N22">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O22">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P22">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q22">
-        <v>66.67433450561981</v>
+        <v>79.65368498110223</v>
       </c>
       <c r="R22">
-        <v>66.67433450561981</v>
+        <v>716.88316482992</v>
       </c>
       <c r="S22">
-        <v>0.01489828606781887</v>
+        <v>0.01411298154426242</v>
       </c>
       <c r="T22">
-        <v>0.01489828606781887</v>
+        <v>0.01411298154426242</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.74704134588599</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H23">
-        <v>4.74704134588599</v>
+        <v>16.20007</v>
       </c>
       <c r="I23">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J23">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N23">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O23">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P23">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q23">
-        <v>90.24441958639611</v>
+        <v>103.9210586396711</v>
       </c>
       <c r="R23">
-        <v>90.24441958639611</v>
+        <v>935.28952775704</v>
       </c>
       <c r="S23">
-        <v>0.02016498835708787</v>
+        <v>0.01841265702885999</v>
       </c>
       <c r="T23">
-        <v>0.02016498835708787</v>
+        <v>0.01841265702885998</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.74704134588599</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H24">
-        <v>4.74704134588599</v>
+        <v>16.20007</v>
       </c>
       <c r="I24">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J24">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N24">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O24">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P24">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q24">
-        <v>32.65350431690902</v>
+        <v>37.58542060543667</v>
       </c>
       <c r="R24">
-        <v>32.65350431690902</v>
+        <v>338.26878544893</v>
       </c>
       <c r="S24">
-        <v>0.007296379514505161</v>
+        <v>0.006659357284772389</v>
       </c>
       <c r="T24">
-        <v>0.007296379514505161</v>
+        <v>0.006659357284772387</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.74704134588599</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H25">
-        <v>4.74704134588599</v>
+        <v>16.20007</v>
       </c>
       <c r="I25">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J25">
-        <v>0.08793316130401282</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.9858659201119</v>
+        <v>14.921556</v>
       </c>
       <c r="N25">
-        <v>12.9858659201119</v>
+        <v>44.764668</v>
       </c>
       <c r="O25">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="P25">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="Q25">
-        <v>61.64444243490301</v>
+        <v>80.57675056964</v>
       </c>
       <c r="R25">
-        <v>61.64444243490301</v>
+        <v>725.19075512676</v>
       </c>
       <c r="S25">
-        <v>0.01377436377424912</v>
+        <v>0.01427652962892753</v>
       </c>
       <c r="T25">
-        <v>0.01377436377424912</v>
+        <v>0.01427652962892753</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.61949934922138</v>
+        <v>1.636677333333333</v>
       </c>
       <c r="H26">
-        <v>1.61949934922138</v>
+        <v>4.910032</v>
       </c>
       <c r="I26">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="J26">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N26">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O26">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P26">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q26">
-        <v>13.17671479096184</v>
+        <v>15.38972770233067</v>
       </c>
       <c r="R26">
-        <v>13.17671479096184</v>
+        <v>138.507549320976</v>
       </c>
       <c r="S26">
-        <v>0.002944318347463416</v>
+        <v>0.002726740678547968</v>
       </c>
       <c r="T26">
-        <v>0.002944318347463416</v>
+        <v>0.002726740678547967</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.61949934922138</v>
+        <v>1.636677333333333</v>
       </c>
       <c r="H27">
-        <v>1.61949934922138</v>
+        <v>4.910032</v>
       </c>
       <c r="I27">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="J27">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N27">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O27">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P27">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q27">
-        <v>35.37399324052242</v>
+        <v>35.76260378229156</v>
       </c>
       <c r="R27">
-        <v>35.37399324052242</v>
+        <v>321.863434040624</v>
       </c>
       <c r="S27">
-        <v>0.007904268929957952</v>
+        <v>0.006336391935589594</v>
       </c>
       <c r="T27">
-        <v>0.007904268929957952</v>
+        <v>0.006336391935589593</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.61949934922138</v>
+        <v>1.636677333333333</v>
       </c>
       <c r="H28">
-        <v>1.61949934922138</v>
+        <v>4.910032</v>
       </c>
       <c r="I28">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="J28">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N28">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O28">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P28">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q28">
-        <v>22.74659803315166</v>
+        <v>24.14200322437689</v>
       </c>
       <c r="R28">
-        <v>22.74659803315166</v>
+        <v>217.278029019392</v>
       </c>
       <c r="S28">
-        <v>0.005082695269182112</v>
+        <v>0.004277462442923883</v>
       </c>
       <c r="T28">
-        <v>0.005082695269182112</v>
+        <v>0.004277462442923881</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.61949934922138</v>
+        <v>1.636677333333333</v>
       </c>
       <c r="H29">
-        <v>1.61949934922138</v>
+        <v>4.910032</v>
       </c>
       <c r="I29">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="J29">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N29">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O29">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P29">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q29">
-        <v>30.78776192200028</v>
+        <v>31.49713077750044</v>
       </c>
       <c r="R29">
-        <v>30.78776192200028</v>
+        <v>283.474176997504</v>
       </c>
       <c r="S29">
-        <v>0.006879482006126356</v>
+        <v>0.005580638553828931</v>
       </c>
       <c r="T29">
-        <v>0.006879482006126356</v>
+        <v>0.00558063855382893</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.61949934922138</v>
+        <v>1.636677333333333</v>
       </c>
       <c r="H30">
-        <v>1.61949934922138</v>
+        <v>4.910032</v>
       </c>
       <c r="I30">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="J30">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N30">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O30">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P30">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q30">
-        <v>11.14006075318093</v>
+        <v>11.39165558581867</v>
       </c>
       <c r="R30">
-        <v>11.14006075318093</v>
+        <v>102.524900272368</v>
       </c>
       <c r="S30">
-        <v>0.002489230873384753</v>
+        <v>0.002018365190253224</v>
       </c>
       <c r="T30">
-        <v>0.002489230873384753</v>
+        <v>0.002018365190253223</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.61949934922138</v>
+        <v>1.636677333333333</v>
       </c>
       <c r="H31">
-        <v>1.61949934922138</v>
+        <v>4.910032</v>
       </c>
       <c r="I31">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="J31">
-        <v>0.0299992536678124</v>
+        <v>0.02526663055637566</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.9858659201119</v>
+        <v>14.921556</v>
       </c>
       <c r="N31">
-        <v>12.9858659201119</v>
+        <v>44.764668</v>
       </c>
       <c r="O31">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="P31">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="Q31">
-        <v>21.03060140669732</v>
+        <v>24.421772483264</v>
       </c>
       <c r="R31">
-        <v>21.03060140669732</v>
+        <v>219.795952349376</v>
       </c>
       <c r="S31">
-        <v>0.004699258241697811</v>
+        <v>0.004327031755232064</v>
       </c>
       <c r="T31">
-        <v>0.004699258241697811</v>
+        <v>0.004327031755232063</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.20375956542966</v>
+        <v>9.974811333333333</v>
       </c>
       <c r="H32">
-        <v>8.20375956542966</v>
+        <v>29.924434</v>
       </c>
       <c r="I32">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067442</v>
       </c>
       <c r="J32">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067441</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N32">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O32">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P32">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q32">
-        <v>66.74815896607991</v>
+        <v>93.79346018648467</v>
       </c>
       <c r="R32">
-        <v>66.74815896607991</v>
+        <v>844.1411416783619</v>
       </c>
       <c r="S32">
-        <v>0.01491478203945312</v>
+        <v>0.01661825655521673</v>
       </c>
       <c r="T32">
-        <v>0.01491478203945312</v>
+        <v>0.01661825655521672</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.20375956542966</v>
+        <v>9.974811333333333</v>
       </c>
       <c r="H33">
-        <v>8.20375956542966</v>
+        <v>29.924434</v>
       </c>
       <c r="I33">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067442</v>
       </c>
       <c r="J33">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067441</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N33">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O33">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P33">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q33">
-        <v>179.1910169978775</v>
+        <v>217.9569657695375</v>
       </c>
       <c r="R33">
-        <v>179.1910169978775</v>
+        <v>1961.612691925838</v>
       </c>
       <c r="S33">
-        <v>0.04003998017847116</v>
+        <v>0.03861745550226212</v>
       </c>
       <c r="T33">
-        <v>0.04003998017847116</v>
+        <v>0.0386174555022621</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.20375956542966</v>
+        <v>9.974811333333333</v>
       </c>
       <c r="H34">
-        <v>8.20375956542966</v>
+        <v>29.924434</v>
       </c>
       <c r="I34">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067442</v>
       </c>
       <c r="J34">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067441</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N34">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O34">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P34">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q34">
-        <v>115.2254993403784</v>
+        <v>147.1346382499449</v>
       </c>
       <c r="R34">
-        <v>115.2254993403784</v>
+        <v>1324.211744249504</v>
       </c>
       <c r="S34">
-        <v>0.02574697541728803</v>
+        <v>0.02606920740246794</v>
       </c>
       <c r="T34">
-        <v>0.02574697541728803</v>
+        <v>0.02606920740246793</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.20375956542966</v>
+        <v>9.974811333333333</v>
       </c>
       <c r="H35">
-        <v>8.20375956542966</v>
+        <v>29.924434</v>
       </c>
       <c r="I35">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067442</v>
       </c>
       <c r="J35">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067441</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N35">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O35">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P35">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q35">
-        <v>155.9589366227369</v>
+        <v>191.9608285935164</v>
       </c>
       <c r="R35">
-        <v>155.9589366227369</v>
+        <v>1727.647457341648</v>
       </c>
       <c r="S35">
-        <v>0.03484880456425889</v>
+        <v>0.03401147896427342</v>
       </c>
       <c r="T35">
-        <v>0.03484880456425889</v>
+        <v>0.0340114789642734</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.20375956542966</v>
+        <v>9.974811333333333</v>
       </c>
       <c r="H36">
-        <v>8.20375956542966</v>
+        <v>29.924434</v>
       </c>
       <c r="I36">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067442</v>
       </c>
       <c r="J36">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067441</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N36">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O36">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P36">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q36">
-        <v>56.43125451536246</v>
+        <v>69.42701101104066</v>
       </c>
       <c r="R36">
-        <v>56.43125451536246</v>
+        <v>624.843099099366</v>
       </c>
       <c r="S36">
-        <v>0.01260948428161517</v>
+        <v>0.01230102694312991</v>
       </c>
       <c r="T36">
-        <v>0.01260948428161517</v>
+        <v>0.0123010269431299</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.20375956542966</v>
+        <v>9.974811333333333</v>
       </c>
       <c r="H37">
-        <v>8.20375956542966</v>
+        <v>29.924434</v>
       </c>
       <c r="I37">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067442</v>
       </c>
       <c r="J37">
-        <v>0.1519646576896678</v>
+        <v>0.1539887354067441</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.9858659201119</v>
+        <v>14.921556</v>
       </c>
       <c r="N37">
-        <v>12.9858659201119</v>
+        <v>44.764668</v>
       </c>
       <c r="O37">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="P37">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="Q37">
-        <v>106.532921757505</v>
+        <v>148.839705899768</v>
       </c>
       <c r="R37">
-        <v>106.532921757505</v>
+        <v>1339.557353097912</v>
       </c>
       <c r="S37">
-        <v>0.02380463120858143</v>
+        <v>0.02637131003939405</v>
       </c>
       <c r="T37">
-        <v>0.02380463120858143</v>
+        <v>0.02637131003939404</v>
       </c>
     </row>
   </sheetData>
